--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.29906877175</v>
+        <v>418158.5146855786</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.29906877175</v>
+        <v>418158.5146855786</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85494.21928024651</v>
+        <v>5836762.799593705</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85494.21928024651</v>
+        <v>5836762.799593705</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1038034887.151267</v>
+        <v>40861864.74225559</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13099.25313000009</v>
+        <v>1267600.735458696</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23253.47809489931</v>
+        <v>2025568.765588316</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33409.18365591561</v>
+        <v>2783536.795717936</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43770.0057892972</v>
+        <v>3540745.128304703</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54130.8279226788</v>
+        <v>4297953.460891471</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64491.65005606039</v>
+        <v>5055161.793478238</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74852.47218944196</v>
+        <v>5812370.126064999</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85213.29432282355</v>
+        <v>6569578.458651762</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95663.38260877808</v>
+        <v>7282417.497187308</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106203.5265691085</v>
+        <v>8013177.614923665</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116743.670529439</v>
+        <v>8743937.732660022</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127283.8144897694</v>
+        <v>9474697.85039638</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137823.9584500998</v>
+        <v>10205457.96813275</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148364.1024104302</v>
+        <v>10936218.08586911</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>158904.2463707608</v>
+        <v>11666978.20360548</v>
       </c>
     </row>
   </sheetData>
